--- a/noptien/k78.xlsx
+++ b/noptien/k78.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\learn\noptien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31DFA505-3D21-400B-94A4-C555D397BF1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0788EC-5B51-4900-B527-46424A1904FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="HD" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="LE_PHI" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">LE_PHI!$A$1:$R$86</definedName>
+  </definedNames>
   <calcPr calcId="999999"/>
 </workbook>
 </file>
@@ -3751,10 +3754,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:HP200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:L63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3818,7 +3822,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="51" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="51" customFormat="1" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="72"/>
       <c r="B2" s="63" t="s">
         <v>26</v>
@@ -3910,7 +3914,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="45">
         <v>2</v>
       </c>
@@ -3964,7 +3968,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="45">
         <v>3</v>
       </c>
@@ -4018,7 +4022,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="45">
         <v>4</v>
       </c>
@@ -4072,7 +4076,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="45">
         <v>5</v>
       </c>
@@ -4126,7 +4130,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="45">
         <v>6</v>
       </c>
@@ -4180,7 +4184,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="45">
         <v>7</v>
       </c>
@@ -4234,7 +4238,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="45">
         <v>8</v>
       </c>
@@ -4290,7 +4294,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="45">
         <v>9</v>
       </c>
@@ -4346,7 +4350,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="45">
         <v>10</v>
       </c>
@@ -4400,7 +4404,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="45">
         <v>11</v>
       </c>
@@ -4456,7 +4460,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="45">
         <v>12</v>
       </c>
@@ -4512,7 +4516,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="45">
         <v>13</v>
       </c>
@@ -4568,7 +4572,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="45">
         <v>14</v>
       </c>
@@ -4622,7 +4626,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:224" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:224" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="45">
         <v>15</v>
       </c>
@@ -4676,7 +4680,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:224" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:224" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="45">
         <v>16</v>
       </c>
@@ -4730,7 +4734,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:224" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:224" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="45">
         <v>17</v>
       </c>
@@ -4786,7 +4790,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:224" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:224" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="45">
         <v>18</v>
       </c>
@@ -4842,7 +4846,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:224" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:224" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="45">
         <v>19</v>
       </c>
@@ -4898,7 +4902,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:224" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:224" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="45">
         <v>20</v>
       </c>
@@ -4954,7 +4958,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:224" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:224" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="45">
         <v>21</v>
       </c>
@@ -5010,7 +5014,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:224" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:224" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="45">
         <v>22</v>
       </c>
@@ -5066,7 +5070,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:224" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:224" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="45">
         <v>23</v>
       </c>
@@ -5122,7 +5126,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:224" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:224" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="45">
         <v>24</v>
       </c>
@@ -5178,7 +5182,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:224" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:224" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="45">
         <v>25</v>
       </c>
@@ -5234,7 +5238,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:224" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:224" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="45">
         <v>26</v>
       </c>
@@ -5290,7 +5294,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:224" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:224" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="45">
         <v>27</v>
       </c>
@@ -5344,7 +5348,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:224" s="61" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:224" s="61" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="45">
         <v>28</v>
       </c>
@@ -5606,7 +5610,7 @@
       <c r="HO30" s="52"/>
       <c r="HP30" s="52"/>
     </row>
-    <row r="31" spans="1:224" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:224" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="45">
         <v>29</v>
       </c>
@@ -5660,7 +5664,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:224" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:224" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="45">
         <v>30</v>
       </c>
@@ -5714,7 +5718,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="45">
         <v>31</v>
       </c>
@@ -5768,7 +5772,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="45">
         <v>32</v>
       </c>
@@ -5822,7 +5826,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="45">
         <v>33</v>
       </c>
@@ -5876,7 +5880,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="45">
         <v>34</v>
       </c>
@@ -5930,7 +5934,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="45">
         <v>35</v>
       </c>
@@ -5984,7 +5988,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="45">
         <v>36</v>
       </c>
@@ -6040,7 +6044,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="45">
         <v>37</v>
       </c>
@@ -6094,7 +6098,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="45">
         <v>38</v>
       </c>
@@ -6150,7 +6154,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="45">
         <v>39</v>
       </c>
@@ -6204,7 +6208,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="45">
         <v>40</v>
       </c>
@@ -6260,7 +6264,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="45">
         <v>41</v>
       </c>
@@ -6314,7 +6318,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="45">
         <v>42</v>
       </c>
@@ -6368,7 +6372,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="45">
         <v>43</v>
       </c>
@@ -6422,7 +6426,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="45">
         <v>44</v>
       </c>
@@ -6476,7 +6480,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="45">
         <v>45</v>
       </c>
@@ -6532,7 +6536,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="45">
         <v>46</v>
       </c>
@@ -6586,7 +6590,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="45">
         <v>47</v>
       </c>
@@ -6642,7 +6646,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="45">
         <v>48</v>
       </c>
@@ -6696,7 +6700,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="45">
         <v>49</v>
       </c>
@@ -6750,7 +6754,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="45">
         <v>50</v>
       </c>
@@ -6804,7 +6808,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="45">
         <v>51</v>
       </c>
@@ -6912,7 +6916,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="45">
         <v>53</v>
       </c>
@@ -6968,7 +6972,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="45">
         <v>54</v>
       </c>
@@ -7024,7 +7028,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="45">
         <v>55</v>
       </c>
@@ -7080,7 +7084,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="58" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="45">
         <v>56</v>
       </c>
@@ -7134,7 +7138,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="59" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="45">
         <v>57</v>
       </c>
@@ -7190,7 +7194,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="60" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="45">
         <v>58</v>
       </c>
@@ -7246,7 +7250,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="45">
         <v>59</v>
       </c>
@@ -7302,7 +7306,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="45">
         <v>60</v>
       </c>
@@ -7412,7 +7416,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="64" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="45">
         <v>62</v>
       </c>
@@ -7468,7 +7472,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="45">
         <v>63</v>
       </c>
@@ -7524,7 +7528,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="66" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="45">
         <v>64</v>
       </c>
@@ -7580,7 +7584,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="67" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="45">
         <v>65</v>
       </c>
@@ -7634,7 +7638,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="68" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="45">
         <v>66</v>
       </c>
@@ -7690,7 +7694,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="69" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="45">
         <v>67</v>
       </c>
@@ -7744,7 +7748,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="70" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="45">
         <v>68</v>
       </c>
@@ -7798,7 +7802,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="71" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="45">
         <v>69</v>
       </c>
@@ -7852,7 +7856,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="72" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="45">
         <v>70</v>
       </c>
@@ -7908,7 +7912,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="73" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="45">
         <v>71</v>
       </c>
@@ -7962,7 +7966,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="74" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="45">
         <v>72</v>
       </c>
@@ -8018,7 +8022,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="75" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="45">
         <v>73</v>
       </c>
@@ -8074,7 +8078,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="76" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="45">
         <v>74</v>
       </c>
@@ -8128,7 +8132,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="77" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="45">
         <v>75</v>
       </c>
@@ -8182,7 +8186,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="78" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="45">
         <v>76</v>
       </c>
@@ -8238,7 +8242,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="79" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="45">
         <v>77</v>
       </c>
@@ -8294,7 +8298,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="80" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="45">
         <v>78</v>
       </c>
@@ -8350,7 +8354,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="81" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="45">
         <v>79</v>
       </c>
@@ -8404,7 +8408,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="82" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="45">
         <v>80</v>
       </c>
@@ -8458,7 +8462,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="83" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="45">
         <v>81</v>
       </c>
@@ -8514,7 +8518,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="84" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="45">
         <v>82</v>
       </c>
@@ -8568,7 +8572,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="85" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="45">
         <v>83</v>
       </c>
@@ -8624,7 +8628,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="86" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="45">
         <v>84</v>
       </c>
@@ -10962,6 +10966,25 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <autoFilter ref="A1:R86" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <filterColumn colId="2" showButton="0"/>
+    <filterColumn colId="3" showButton="0"/>
+    <filterColumn colId="4" showButton="0"/>
+    <filterColumn colId="5" showButton="0"/>
+    <filterColumn colId="6" showButton="0"/>
+    <filterColumn colId="7" showButton="0"/>
+    <filterColumn colId="8" showButton="0"/>
+    <filterColumn colId="13">
+      <filters>
+        <filter val="TM"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="14">
+      <filters>
+        <filter val="Dương Tuấn Dũng"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="10">
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="P1:P2"/>
